--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H2">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I2">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J2">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.927965666666666</v>
+        <v>2.223710666666667</v>
       </c>
       <c r="N2">
-        <v>5.783897</v>
+        <v>6.671132</v>
       </c>
       <c r="O2">
-        <v>0.4937378937520984</v>
+        <v>0.529381647492601</v>
       </c>
       <c r="P2">
-        <v>0.4937378937520984</v>
+        <v>0.5293816474926011</v>
       </c>
       <c r="Q2">
-        <v>6.349353263652778</v>
+        <v>5.401812008175556</v>
       </c>
       <c r="R2">
-        <v>57.14417937287499</v>
+        <v>48.61630807358</v>
       </c>
       <c r="S2">
-        <v>0.07978071689004183</v>
+        <v>0.05834496284516624</v>
       </c>
       <c r="T2">
-        <v>0.08247419147069285</v>
+        <v>0.05867680581960485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.293291666666667</v>
+        <v>2.429188333333333</v>
       </c>
       <c r="H3">
-        <v>9.879875</v>
+        <v>7.287565</v>
       </c>
       <c r="I3">
-        <v>0.161585160668464</v>
+        <v>0.1102134218696762</v>
       </c>
       <c r="J3">
-        <v>0.1670404328173815</v>
+        <v>0.110840272037245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.930612</v>
       </c>
       <c r="O3">
-        <v>0.5062621062479017</v>
+        <v>0.4706183525073989</v>
       </c>
       <c r="P3">
-        <v>0.5062621062479017</v>
+        <v>0.470618352507399</v>
       </c>
       <c r="Q3">
-        <v>6.510411692611111</v>
+        <v>4.802191159975555</v>
       </c>
       <c r="R3">
-        <v>58.5937052335</v>
+        <v>43.21972043978</v>
       </c>
       <c r="S3">
-        <v>0.08180444377842219</v>
+        <v>0.05186845902450993</v>
       </c>
       <c r="T3">
-        <v>0.08456624134668869</v>
+        <v>0.05216346621764018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>8.517274</v>
       </c>
       <c r="I4">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J4">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.927965666666666</v>
+        <v>2.223710666666667</v>
       </c>
       <c r="N4">
-        <v>5.783897</v>
+        <v>6.671132</v>
       </c>
       <c r="O4">
-        <v>0.4937378937520984</v>
+        <v>0.529381647492601</v>
       </c>
       <c r="P4">
-        <v>0.4937378937520984</v>
+        <v>0.5293816474926011</v>
       </c>
       <c r="Q4">
-        <v>5.473670615197555</v>
+        <v>6.313317681574223</v>
       </c>
       <c r="R4">
-        <v>49.263035536778</v>
+        <v>56.81985913416801</v>
       </c>
       <c r="S4">
-        <v>0.06877761365087252</v>
+        <v>0.068190134163071</v>
       </c>
       <c r="T4">
-        <v>0.07109961276679655</v>
+        <v>0.06857797256153039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>8.517274</v>
       </c>
       <c r="I5">
-        <v>0.1392998482012507</v>
+        <v>0.1288109145567312</v>
       </c>
       <c r="J5">
-        <v>0.1440027465311282</v>
+        <v>0.1295435398759056</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -750,10 +750,10 @@
         <v>5.930612</v>
       </c>
       <c r="O5">
-        <v>0.5062621062479017</v>
+        <v>0.4706183525073989</v>
       </c>
       <c r="P5">
-        <v>0.5062621062479017</v>
+        <v>0.470618352507399</v>
       </c>
       <c r="Q5">
         <v>5.612516376854223</v>
@@ -762,10 +762,10 @@
         <v>50.51264739168801</v>
       </c>
       <c r="S5">
-        <v>0.07052223455037814</v>
+        <v>0.06062078039366015</v>
       </c>
       <c r="T5">
-        <v>0.0729031337643317</v>
+        <v>0.06096556731437525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H6">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I6">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J6">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.927965666666666</v>
+        <v>2.223710666666667</v>
       </c>
       <c r="N6">
-        <v>5.783897</v>
+        <v>6.671132</v>
       </c>
       <c r="O6">
-        <v>0.4937378937520984</v>
+        <v>0.529381647492601</v>
       </c>
       <c r="P6">
-        <v>0.4937378937520984</v>
+        <v>0.5293816474926011</v>
       </c>
       <c r="Q6">
-        <v>12.50596651429844</v>
+        <v>18.22486625203689</v>
       </c>
       <c r="R6">
-        <v>112.553698628686</v>
+        <v>164.023796268332</v>
       </c>
       <c r="S6">
-        <v>0.1571396223336912</v>
+        <v>0.1968467511871729</v>
       </c>
       <c r="T6">
-        <v>0.1624448087856035</v>
+        <v>0.1979663373217271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.486612666666666</v>
+        <v>8.195700333333333</v>
       </c>
       <c r="H7">
-        <v>19.459838</v>
+        <v>24.587101</v>
       </c>
       <c r="I7">
-        <v>0.3182652664949993</v>
+        <v>0.3718427945500777</v>
       </c>
       <c r="J7">
-        <v>0.3290102113717155</v>
+        <v>0.3739576886720351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +874,22 @@
         <v>5.930612</v>
       </c>
       <c r="O7">
-        <v>0.5062621062479017</v>
+        <v>0.4706183525073989</v>
       </c>
       <c r="P7">
-        <v>0.5062621062479017</v>
+        <v>0.470618352507399</v>
       </c>
       <c r="Q7">
-        <v>12.82319430676178</v>
+        <v>16.20183958175689</v>
       </c>
       <c r="R7">
-        <v>115.408748760856</v>
+        <v>145.816556235812</v>
       </c>
       <c r="S7">
-        <v>0.1611256441613081</v>
+        <v>0.1749960433629048</v>
       </c>
       <c r="T7">
-        <v>0.166565402586112</v>
+        <v>0.175991351350308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H8">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I8">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J8">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.927965666666666</v>
+        <v>2.223710666666667</v>
       </c>
       <c r="N8">
-        <v>5.783897</v>
+        <v>6.671132</v>
       </c>
       <c r="O8">
-        <v>0.4937378937520984</v>
+        <v>0.529381647492601</v>
       </c>
       <c r="P8">
-        <v>0.4937378937520984</v>
+        <v>0.5293816474926011</v>
       </c>
       <c r="Q8">
-        <v>3.849852457586333</v>
+        <v>0.8315577156553334</v>
       </c>
       <c r="R8">
-        <v>23.099114745518</v>
+        <v>4.989346293932</v>
       </c>
       <c r="S8">
-        <v>0.0483740589368983</v>
+        <v>0.008981653554416874</v>
       </c>
       <c r="T8">
-        <v>0.03333814280356352</v>
+        <v>0.006021825088254897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.996847</v>
+        <v>0.3739505</v>
       </c>
       <c r="H9">
-        <v>3.993694</v>
+        <v>0.747901</v>
       </c>
       <c r="I9">
-        <v>0.09797517984549614</v>
+        <v>0.01696631078345497</v>
       </c>
       <c r="J9">
-        <v>0.06752194479182982</v>
+        <v>0.0113752056135249</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>5.930612</v>
       </c>
       <c r="O9">
-        <v>0.5062621062479017</v>
+        <v>0.4706183525073989</v>
       </c>
       <c r="P9">
-        <v>0.5062621062479017</v>
+        <v>0.470618352507399</v>
       </c>
       <c r="Q9">
-        <v>3.947508260121333</v>
+        <v>0.7392517742353334</v>
       </c>
       <c r="R9">
-        <v>23.685049560728</v>
+        <v>4.435510645412</v>
       </c>
       <c r="S9">
-        <v>0.04960112090859784</v>
+        <v>0.007984657229038097</v>
       </c>
       <c r="T9">
-        <v>0.0341838019882663</v>
+        <v>0.005353380525270006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H10">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I10">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J10">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.927965666666666</v>
+        <v>2.223710666666667</v>
       </c>
       <c r="N10">
-        <v>5.783897</v>
+        <v>6.671132</v>
       </c>
       <c r="O10">
-        <v>0.4937378937520984</v>
+        <v>0.529381647492601</v>
       </c>
       <c r="P10">
-        <v>0.4937378937520984</v>
+        <v>0.5293816474926011</v>
       </c>
       <c r="Q10">
-        <v>11.11531780972433</v>
+        <v>18.24073465135422</v>
       </c>
       <c r="R10">
-        <v>100.037860287519</v>
+        <v>164.166611862188</v>
       </c>
       <c r="S10">
-        <v>0.1396658819405944</v>
+        <v>0.197018145742774</v>
       </c>
       <c r="T10">
-        <v>0.144381137925442</v>
+        <v>0.1981387067014838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.765308999999999</v>
+        <v>8.202836333333334</v>
       </c>
       <c r="H11">
-        <v>17.295927</v>
+        <v>24.608509</v>
       </c>
       <c r="I11">
-        <v>0.2828745447897898</v>
+        <v>0.3721665582400601</v>
       </c>
       <c r="J11">
-        <v>0.292424664487945</v>
+        <v>0.3742832938012893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>5.930612</v>
       </c>
       <c r="O11">
-        <v>0.5062621062479017</v>
+        <v>0.4706183525073989</v>
       </c>
       <c r="P11">
-        <v>0.5062621062479017</v>
+        <v>0.470618352507399</v>
       </c>
       <c r="Q11">
-        <v>11.39727024636933</v>
+        <v>16.21594653083422</v>
       </c>
       <c r="R11">
-        <v>102.575432217324</v>
+        <v>145.943518777508</v>
       </c>
       <c r="S11">
-        <v>0.1432086628491954</v>
+        <v>0.175148412497286</v>
       </c>
       <c r="T11">
-        <v>0.148043526562503</v>
+        <v>0.1761445870998056</v>
       </c>
     </row>
   </sheetData>
